--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ead05008429b461/Desktop/1008/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhei Wei\Documents\GitHub\CSC1008_TraceTogether_Grp5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDA803C6-B823-4F61-9FF2-6E003660747D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0F3D61-6698-4582-9420-1C7C8E77DE56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8B2B3350-DAD5-466D-9D77-8D47E153328E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8B2B3350-DAD5-466D-9D77-8D47E153328E}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset 1" sheetId="1" r:id="rId1"/>
     <sheet name="Dataset 2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,20 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
   <si>
     <t>Device ID</t>
   </si>
   <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>(Location)</t>
-  </si>
-  <si>
     <t>Check-In</t>
   </si>
   <si>
@@ -58,60 +49,24 @@
     <t>A</t>
   </si>
   <si>
-    <t>nex</t>
-  </si>
-  <si>
-    <t>Botanics</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>hougang SC</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>BBNP</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
-    <t>MBS</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>JBP</t>
-  </si>
-  <si>
-    <t>Westgate</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
     <t>I</t>
   </si>
   <si>
-    <t>USS</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>WWW</t>
-  </si>
-  <si>
     <t>K</t>
   </si>
   <si>
@@ -125,13 +80,70 @@
   </si>
   <si>
     <t>Connection Time(s)</t>
+  </si>
+  <si>
+    <t>S1234567B</t>
+  </si>
+  <si>
+    <t>S2345678C</t>
+  </si>
+  <si>
+    <t>S3456789D</t>
+  </si>
+  <si>
+    <t>S4567890A</t>
+  </si>
+  <si>
+    <t>S5678901E</t>
+  </si>
+  <si>
+    <t>S6789012F</t>
+  </si>
+  <si>
+    <t>S7890123G</t>
+  </si>
+  <si>
+    <t>S8901234H</t>
+  </si>
+  <si>
+    <t>S9012345I</t>
+  </si>
+  <si>
+    <t>S0123456J</t>
+  </si>
+  <si>
+    <t>S9876543K</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Check-in-date</t>
+  </si>
+  <si>
+    <t>Jewel Changi Airport</t>
+  </si>
+  <si>
+    <t>Singapore Institute of Technology</t>
+  </si>
+  <si>
+    <t>Lucky Plaza</t>
+  </si>
+  <si>
+    <t>Tiong Bahru Plaza</t>
+  </si>
+  <si>
+    <t>Peninsula Plaza</t>
+  </si>
+  <si>
+    <t>Botanic Garden</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,10 +172,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,462 +491,396 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE38CCF7-0456-439A-AB68-34BF1DCB1A19}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>1.3512521</v>
-      </c>
-      <c r="C2">
-        <v>103.8724922</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44200</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.54166666666666663</v>
       </c>
       <c r="E2" s="1">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="F2" s="1">
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>1.3147134</v>
-      </c>
-      <c r="C3">
-        <v>103.82235129999999</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3">
+        <v>44200</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.41666666666666669</v>
       </c>
       <c r="E3" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44201</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.57291666666666663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44202</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44203</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.49305555555555558</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44204</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44205</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.83680555555555547</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44206</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.55902777777777779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44207</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44208</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44209</v>
+      </c>
+      <c r="D12" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F3" s="1">
+      <c r="E12" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44210</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44211</v>
+      </c>
+      <c r="D14" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>1.3655161</v>
-      </c>
-      <c r="C4">
-        <v>103.87481990000001</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="E14" s="1">
+        <v>0.68055555555555547</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3">
+        <v>44212</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="3">
+        <v>44213</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3">
+        <v>44214</v>
+      </c>
+      <c r="D17" s="1">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F4" s="1">
-        <v>0.57291666666666663</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>1.3512521</v>
-      </c>
-      <c r="C5">
-        <v>103.8724922</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.59722222222222221</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.71875</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>1.3350366</v>
-      </c>
-      <c r="C6">
-        <v>103.7392114</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.49305555555555558</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>1.2896399000000001</v>
-      </c>
-      <c r="C7">
-        <v>103.8307113</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="E17" s="1">
+        <v>0.76041666666666663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44215</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.86805555555555547</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="3">
+        <v>44216</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.92361111111111116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="3">
+        <v>44217</v>
+      </c>
+      <c r="D20" s="1">
         <v>0.5</v>
       </c>
-      <c r="F7" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>1.3512521</v>
-      </c>
-      <c r="C8">
-        <v>103.8724922</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.83680555555555547</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>1.3512521</v>
-      </c>
-      <c r="C9">
-        <v>103.8724922</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.4861111111111111</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.55902777777777779</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>1.2896399000000001</v>
-      </c>
-      <c r="C10">
-        <v>103.8307113</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.67361111111111116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>1.3147134</v>
-      </c>
-      <c r="C11">
-        <v>103.82235129999999</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.8125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
-        <v>1.3210439</v>
-      </c>
-      <c r="C12">
-        <v>103.7009955</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>1.3295789</v>
-      </c>
-      <c r="C13">
-        <v>103.7392114</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="E20" s="1">
         <v>0.75</v>
       </c>
-      <c r="F13" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>1.3350366</v>
-      </c>
-      <c r="C14">
-        <v>103.7392114</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.68055555555555547</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>1.3210439</v>
-      </c>
-      <c r="C15">
-        <v>103.7009955</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.64583333333333337</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16">
-        <v>1.2896399000000001</v>
-      </c>
-      <c r="C16">
-        <v>103.8307113</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.69791666666666663</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17">
-        <v>1.2964534000000001</v>
-      </c>
-      <c r="C17">
-        <v>103.8248909</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.76041666666666663</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>1.3512521</v>
-      </c>
-      <c r="C18">
-        <v>103.8724922</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.81944444444444453</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.86805555555555547</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>1.3655161</v>
-      </c>
-      <c r="C19">
-        <v>103.87481990000001</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.92361111111111116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>1.3730827000000001</v>
-      </c>
-      <c r="C20">
-        <v>103.9237911</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21">
-        <v>1.3512521</v>
-      </c>
-      <c r="C21">
-        <v>103.8724922</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="3">
+        <v>44218</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.5625</v>
       </c>
       <c r="E21" s="1">
-        <v>0.5625</v>
-      </c>
-      <c r="F21" s="1">
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22">
-        <v>1.2964534000000001</v>
-      </c>
-      <c r="C22">
-        <v>103.8248909</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="3">
+        <v>44219</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.75</v>
       </c>
       <c r="E22" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="F22" s="1">
         <v>0.95833333333333337</v>
       </c>
     </row>
@@ -950,32 +897,32 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2">
         <v>0.3</v>
@@ -984,12 +931,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>0.76</v>
@@ -998,12 +945,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2">
         <v>0.82</v>
@@ -1012,12 +959,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
         <v>0.08</v>
@@ -1026,12 +973,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2">
         <v>0.97</v>
@@ -1040,12 +987,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2">
         <v>0.9</v>
@@ -1054,12 +1001,12 @@
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2">
         <v>0.4</v>
@@ -1068,12 +1015,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2">
         <v>0.94</v>
@@ -1082,12 +1029,12 @@
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2">
         <v>0.91</v>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhei Wei\Documents\GitHub\CSC1008_TraceTogether_Grp5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0F3D61-6698-4582-9420-1C7C8E77DE56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A94CF4-0EA9-4903-9D37-380D6E189D96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8B2B3350-DAD5-466D-9D77-8D47E153328E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dataset 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Dataset 2" sheetId="2" r:id="rId2"/>
+    <sheet name="SafeEntry" sheetId="1" r:id="rId1"/>
+    <sheet name="TraceTogether1" sheetId="2" r:id="rId2"/>
+    <sheet name="TraceTogether2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
-  <si>
-    <t>Device ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
   <si>
     <t>Check-In</t>
   </si>
@@ -46,42 +44,9 @@
     <t>Check-Out</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>Device-ID 1</t>
-  </si>
-  <si>
-    <t>Device-ID 2</t>
-  </si>
-  <si>
     <t>BT Strength</t>
   </si>
   <si>
-    <t>Connection Time(s)</t>
-  </si>
-  <si>
     <t>S1234567B</t>
   </si>
   <si>
@@ -137,6 +102,12 @@
   </si>
   <si>
     <t>Botanic Garden</t>
+  </si>
+  <si>
+    <t>NRIC</t>
+  </si>
+  <si>
+    <t>BT-Strength</t>
   </si>
 </sst>
 </file>
@@ -494,7 +465,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -512,27 +483,27 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3">
         <v>44200</v>
@@ -546,10 +517,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3">
         <v>44200</v>
@@ -563,10 +534,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3">
         <v>44201</v>
@@ -580,10 +551,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3">
         <v>44202</v>
@@ -597,10 +568,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3">
         <v>44203</v>
@@ -614,10 +585,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3">
         <v>44204</v>
@@ -631,10 +602,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3">
         <v>44205</v>
@@ -648,10 +619,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3">
         <v>44206</v>
@@ -665,10 +636,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3">
         <v>44207</v>
@@ -682,10 +653,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3">
         <v>44208</v>
@@ -699,10 +670,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
         <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
       </c>
       <c r="C12" s="3">
         <v>44209</v>
@@ -716,10 +687,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C13" s="3">
         <v>44210</v>
@@ -733,10 +704,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C14" s="3">
         <v>44211</v>
@@ -750,10 +721,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C15" s="3">
         <v>44212</v>
@@ -767,10 +738,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3">
         <v>44213</v>
@@ -784,10 +755,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C17" s="3">
         <v>44214</v>
@@ -801,10 +772,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C18" s="3">
         <v>44215</v>
@@ -818,10 +789,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C19" s="3">
         <v>44216</v>
@@ -835,10 +806,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C20" s="3">
         <v>44217</v>
@@ -852,10 +823,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C21" s="3">
         <v>44218</v>
@@ -869,10 +840,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C22" s="3">
         <v>44219</v>
@@ -894,153 +865,313 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="2" width="11.54296875" customWidth="1"/>
     <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="A2" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D2" s="2">
         <v>0.3</v>
       </c>
-      <c r="D2">
-        <v>2000</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="A3" s="3">
+        <v>44202</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="2">
         <v>0.76</v>
       </c>
-      <c r="D3">
-        <v>120</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="A4" s="3">
+        <v>44203</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D4" s="2">
         <v>0.82</v>
       </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="A5" s="3">
+        <v>44204</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.71875</v>
+      </c>
+      <c r="D5" s="2">
         <v>0.08</v>
       </c>
-      <c r="D5">
-        <v>65</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="A6" s="3">
+        <v>44205</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D6" s="2">
         <v>0.97</v>
       </c>
-      <c r="D6">
-        <v>180</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="A7" s="3">
+        <v>44206</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D7" s="2">
         <v>0.9</v>
       </c>
-      <c r="D7">
-        <v>900</v>
-      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="A8" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="D8" s="2">
         <v>0.4</v>
       </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="A9" s="3">
+        <v>44208</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="D9" s="2">
         <v>0.94</v>
       </c>
-      <c r="D9">
-        <v>330</v>
-      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="A10" s="3">
+        <v>44209</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="D10" s="2">
         <v>0.91</v>
       </c>
-      <c r="D10">
-        <v>10</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F75745C-AE2A-4DB4-86F9-FAA7108436D6}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>44202</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>44203</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>44204</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>44205</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.71875</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>44206</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>44208</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>44209</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>44210</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.91</v>
       </c>
     </row>
   </sheetData>
